--- a/inst/results/BMF_computation_PFAS_ng_gdw/3.contam_PFAS_ng_gdw_uncensored_taxon_stats.xlsx
+++ b/inst/results/BMF_computation_PFAS_ng_gdw/3.contam_PFAS_ng_gdw_uncensored_taxon_stats.xlsx
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.2415997470981721</v>
+        <v>0.239058013728998</v>
       </c>
       <c r="E3">
-        <v>0.423650895985873</v>
+        <v>0.4242326590369501</v>
       </c>
       <c r="F3">
         <v>0.7129941150550684</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.07876822049669086</v>
+        <v>0.08141511437990984</v>
       </c>
       <c r="E4">
         <v>0.2186770057407714</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.01435040585066779</v>
+        <v>0.01449024281269066</v>
       </c>
       <c r="E6">
         <v>0.1100337672364625</v>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.02356435776779167</v>
+        <v>0.02475059564391487</v>
       </c>
       <c r="E7">
         <v>0.4331741496041617</v>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.04040250438367674</v>
+        <v>0.04134373707948353</v>
       </c>
       <c r="E9">
-        <v>0.0477313157073854</v>
+        <v>0.04784006224598872</v>
       </c>
       <c r="F9">
         <v>0.1713823152358172</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.3129026573868631</v>
+        <v>0.285210188799379</v>
       </c>
       <c r="E11">
-        <v>0.3339879150514217</v>
+        <v>0.3235559504570613</v>
       </c>
       <c r="F11">
-        <v>0.3514092229911533</v>
+        <v>0.3407827236925464</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.01205892070812713</v>
+        <v>0.01287395819840383</v>
       </c>
       <c r="E12">
         <v>0.04380595821951844</v>
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="D13">
-        <v>3.951696989015883</v>
+        <v>3.943365448644887</v>
       </c>
       <c r="E13">
-        <v>5.394370388298178</v>
+        <v>5.402881633126435</v>
       </c>
       <c r="F13">
-        <v>9.13764776975685</v>
+        <v>9.125743175701356</v>
       </c>
     </row>
     <row r="14">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.2642759430329391</v>
+        <v>0.2288425564963268</v>
       </c>
       <c r="E15">
         <v>0.7649610205527994</v>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.1698542177245297</v>
+        <v>0.1699639261961932</v>
       </c>
       <c r="E16">
         <v>0.2591769352772525</v>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.02473803415954385</v>
+        <v>0.02408145577782827</v>
       </c>
       <c r="E19">
         <v>0.5926346380891835</v>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.4081076457362059</v>
+        <v>0.4539387891005192</v>
       </c>
       <c r="E23">
         <v>0.7653095040833233</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.02303540924257819</v>
+        <v>0.02203609467763762</v>
       </c>
       <c r="E24">
         <v>0.04385119017408517</v>
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="D25">
-        <v>10.98041934139558</v>
+        <v>11.0041087037838</v>
       </c>
       <c r="E25">
-        <v>14.91840523167095</v>
+        <v>14.99176931333146</v>
       </c>
       <c r="F25">
-        <v>17.65467062182923</v>
+        <v>17.699528219766</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.1608243412376184</v>
+        <v>0.1604933318719226</v>
       </c>
       <c r="E28">
         <v>0.2313618538079542</v>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.01404072485614991</v>
+        <v>0.01461259042098011</v>
       </c>
       <c r="E30">
         <v>0.1025714702735838</v>
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.02397909545186992</v>
+        <v>0.02292538174273028</v>
       </c>
       <c r="E31">
-        <v>0.3367988125264837</v>
+        <v>0.3367918963752413</v>
       </c>
       <c r="F31">
         <v>0.9601137252317258</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>0.04807257960136119</v>
+        <v>0.04583697821204784</v>
       </c>
       <c r="E33">
         <v>0.1521371538257352</v>
@@ -1264,10 +1264,10 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.2767131883517051</v>
+        <v>0.3150216178095544</v>
       </c>
       <c r="E35">
-        <v>0.3486529340789524</v>
+        <v>0.3432368386291454</v>
       </c>
       <c r="F35">
         <v>1.093835496047211</v>
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="D37">
-        <v>14.0680264812897</v>
+        <v>14.1019951135758</v>
       </c>
       <c r="E37">
-        <v>21.09288808105212</v>
+        <v>21.10008000308873</v>
       </c>
       <c r="F37">
-        <v>25.7424797134341</v>
+        <v>25.73458763814209</v>
       </c>
     </row>
     <row r="38">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="D40">
-        <v>0.08106372493024211</v>
+        <v>0.08009540424700452</v>
       </c>
       <c r="E40">
-        <v>0.08247926697925451</v>
+        <v>0.08456327765055979</v>
       </c>
       <c r="F40">
-        <v>0.2293514507630185</v>
+        <v>0.2295091162223122</v>
       </c>
     </row>
     <row r="41">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="D43">
-        <v>0.02183030077202138</v>
+        <v>0.02390075507836695</v>
       </c>
       <c r="E43">
-        <v>0.02483824694336571</v>
+        <v>0.02475138362629163</v>
       </c>
       <c r="F43">
         <v>0.6262067972478329</v>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="D44">
-        <v>0.2399229192406611</v>
+        <v>0.2392629983996759</v>
       </c>
       <c r="E44">
         <v>0.4993698445517332</v>
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="D45">
-        <v>0.1218888963554929</v>
+        <v>0.122677231353464</v>
       </c>
       <c r="E45">
         <v>0.2247792358570222</v>
@@ -1602,10 +1602,10 @@
         </is>
       </c>
       <c r="D48">
-        <v>0.0142416865539926</v>
+        <v>0.01463024846736994</v>
       </c>
       <c r="E48">
-        <v>0.01480005753163246</v>
+        <v>0.0148620061315173</v>
       </c>
       <c r="F48">
         <v>0.1324544434343871</v>
@@ -1628,13 +1628,13 @@
         </is>
       </c>
       <c r="D49">
-        <v>14.32173793352894</v>
+        <v>14.32196783451306</v>
       </c>
       <c r="E49">
-        <v>17.18580059334436</v>
+        <v>17.16468029822554</v>
       </c>
       <c r="F49">
-        <v>25.7960358159455</v>
+        <v>25.79560824674561</v>
       </c>
     </row>
   </sheetData>
